--- a/Estadísticas Regionales/Muestras faltantes Data/Pesca/Producción Centros de Cultivo según especie - Los Lagos.xlsx
+++ b/Estadísticas Regionales/Muestras faltantes Data/Pesca/Producción Centros de Cultivo según especie - Los Lagos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.100.10.150\Public\NUEVO_BANCO_DATOS\PESCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\Muestras faltantes Data\Pesca\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06222572-F027-4268-906B-07F9AE60C9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="302"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCE" sheetId="1" r:id="rId1"/>
@@ -137,11 +138,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -256,38 +257,38 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -298,7 +299,7 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -312,38 +313,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -718,13 +719,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr syncVertical="1" syncRef="A127" transitionEvaluation="1"/>
   <dimension ref="A1:W234"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J133" sqref="J133"/>
+      <selection pane="bottomLeft" activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
